--- a/date/品牌引入退出时间.xlsx
+++ b/date/品牌引入退出时间.xlsx
@@ -1164,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1382,7 +1382,7 @@
         <v>20170424</v>
       </c>
       <c r="C19" s="1">
-        <v>20180128</v>
+        <v>20180129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -1591,7 +1591,7 @@
         <v>20171030</v>
       </c>
       <c r="C38" s="1">
-        <v>-1</v>
+        <v>20180126</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -1844,7 +1844,7 @@
         <v>20170103</v>
       </c>
       <c r="C61" s="1">
-        <v>20170531</v>
+        <v>20170601</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -1995,7 +1995,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>20170106</v>
+        <v>20170101</v>
       </c>
       <c r="C75" s="1">
         <v>-1</v>
@@ -2039,7 +2039,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>20170107</v>
+        <v>20170101</v>
       </c>
       <c r="C79" s="1">
         <v>-1</v>
@@ -2218,7 +2218,7 @@
         <v>20170106</v>
       </c>
       <c r="C95" s="1">
-        <v>20180212</v>
+        <v>20180213</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -2284,7 +2284,7 @@
         <v>20170101</v>
       </c>
       <c r="C101" s="1">
-        <v>20171023</v>
+        <v>20171107</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -2413,7 +2413,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>20170111</v>
+        <v>20170101</v>
       </c>
       <c r="C113" s="1">
         <v>-1</v>
@@ -2427,7 +2427,7 @@
         <v>20170101</v>
       </c>
       <c r="C114" s="1">
-        <v>20180830</v>
+        <v>20180831</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -2710,7 +2710,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>20170316</v>
+        <v>20170101</v>
       </c>
       <c r="C140" s="1">
         <v>-1</v>
@@ -2845,7 +2845,7 @@
         <v>20170101</v>
       </c>
       <c r="C152" s="1">
-        <v>20180409</v>
+        <v>20180724</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -2867,7 +2867,7 @@
         <v>20170101</v>
       </c>
       <c r="C154" s="1">
-        <v>20180601</v>
+        <v>20180604</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -2974,10 +2974,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>20170101</v>
+        <v>20180127</v>
       </c>
       <c r="C164" s="1">
-        <v>20180127</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -3010,7 +3010,7 @@
         <v>20170101</v>
       </c>
       <c r="C167" s="1">
-        <v>20170222</v>
+        <v>20170223</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -3197,7 +3197,7 @@
         <v>20170101</v>
       </c>
       <c r="C184" s="1">
-        <v>-1</v>
+        <v>20180824</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -3353,8 +3353,11 @@
       <c r="C198" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>198</v>
       </c>
@@ -3365,7 +3368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
         <v>200</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>201</v>
       </c>
@@ -3398,7 +3401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>203</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>204</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>207</v>
       </c>
